--- a/Feeding_America_Food_Insecurity_Projections__Oct._2020_ (1)/Map the Meal Gap data/MMG_Master_byState.xlsx
+++ b/Feeding_America_Food_Insecurity_Projections__Oct._2020_ (1)/Map the Meal Gap data/MMG_Master_byState.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="73">
   <si>
     <t>State Name</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>SNAP, Other Nutrition Programs</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>year</t>
@@ -781,12 +778,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="A511" sqref="A511"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -795,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -14492,8 +14490,8 @@
       <c r="I259" s="36">
         <v>0.66958675531221479</v>
       </c>
-      <c r="J259" s="36" t="s">
-        <v>72</v>
+      <c r="J259" s="36">
+        <v>0</v>
       </c>
       <c r="K259" s="36">
         <v>0.33041324468778516</v>
@@ -14598,8 +14596,8 @@
       <c r="I261" s="36">
         <v>0.78553326039427818</v>
       </c>
-      <c r="J261" s="36" t="s">
-        <v>72</v>
+      <c r="J261" s="36">
+        <v>0</v>
       </c>
       <c r="K261" s="36">
         <v>0.21447414458594127</v>
@@ -14704,8 +14702,8 @@
       <c r="I263" s="36">
         <v>0.55654547763152329</v>
       </c>
-      <c r="J263" s="36" t="s">
-        <v>72</v>
+      <c r="J263" s="36">
+        <v>0</v>
       </c>
       <c r="K263" s="36">
         <v>0.44345452236847677</v>
@@ -14757,8 +14755,8 @@
       <c r="I264" s="36">
         <v>0.64304484190895994</v>
       </c>
-      <c r="J264" s="36" t="s">
-        <v>72</v>
+      <c r="J264" s="36">
+        <v>0</v>
       </c>
       <c r="K264" s="36">
         <v>0.35703992540476392</v>
@@ -14810,8 +14808,8 @@
       <c r="I265" s="36">
         <v>0.73102310231023104</v>
       </c>
-      <c r="J265" s="36" t="s">
-        <v>72</v>
+      <c r="J265" s="36">
+        <v>0</v>
       </c>
       <c r="K265" s="36">
         <v>0.26897689768976896</v>
@@ -14863,8 +14861,8 @@
       <c r="I266" s="36">
         <v>0.74600322220845205</v>
       </c>
-      <c r="J266" s="36" t="s">
-        <v>72</v>
+      <c r="J266" s="36">
+        <v>0</v>
       </c>
       <c r="K266" s="36">
         <v>0.25400917090097908</v>
@@ -14969,8 +14967,8 @@
       <c r="I268" s="36">
         <v>0.57026874261343197</v>
       </c>
-      <c r="J268" s="36" t="s">
-        <v>72</v>
+      <c r="J268" s="36">
+        <v>0</v>
       </c>
       <c r="K268" s="36">
         <v>0.42973125738656803</v>
@@ -15393,8 +15391,8 @@
       <c r="I276" s="36">
         <v>0.60721502143807604</v>
       </c>
-      <c r="J276" s="36" t="s">
-        <v>72</v>
+      <c r="J276" s="36">
+        <v>0</v>
       </c>
       <c r="K276" s="36">
         <v>0.39278497856192401</v>
@@ -15446,8 +15444,8 @@
       <c r="I277" s="36">
         <v>0.61236354070761545</v>
       </c>
-      <c r="J277" s="36" t="s">
-        <v>72</v>
+      <c r="J277" s="36">
+        <v>0</v>
       </c>
       <c r="K277" s="36">
         <v>0.38766276469814548</v>
@@ -15499,8 +15497,8 @@
       <c r="I278" s="36">
         <v>0.66692153943149957</v>
       </c>
-      <c r="J278" s="36" t="s">
-        <v>72</v>
+      <c r="J278" s="36">
+        <v>0</v>
       </c>
       <c r="K278" s="36">
         <v>0.33309187492454423</v>
@@ -15552,8 +15550,8 @@
       <c r="I279" s="36">
         <v>0.74756577850187944</v>
       </c>
-      <c r="J279" s="36" t="s">
-        <v>72</v>
+      <c r="J279" s="36">
+        <v>0</v>
       </c>
       <c r="K279" s="36">
         <v>0.25243422149812061</v>
@@ -15764,8 +15762,8 @@
       <c r="I283" s="36">
         <v>0.69598965071151353</v>
       </c>
-      <c r="J283" s="36" t="s">
-        <v>72</v>
+      <c r="J283" s="36">
+        <v>0</v>
       </c>
       <c r="K283" s="36">
         <v>0.30401034928848641</v>
@@ -15870,8 +15868,8 @@
       <c r="I285" s="36">
         <v>0.77788804612367379</v>
       </c>
-      <c r="J285" s="36" t="s">
-        <v>72</v>
+      <c r="J285" s="36">
+        <v>0</v>
       </c>
       <c r="K285" s="36">
         <v>0.22211195387632618</v>
@@ -15923,8 +15921,8 @@
       <c r="I286" s="36">
         <v>0.5113433049452516</v>
       </c>
-      <c r="J286" s="36" t="s">
-        <v>72</v>
+      <c r="J286" s="36">
+        <v>0</v>
       </c>
       <c r="K286" s="36">
         <v>0.48865669505474846</v>
@@ -15976,8 +15974,8 @@
       <c r="I287" s="36">
         <v>0.64039624291744301</v>
       </c>
-      <c r="J287" s="36" t="s">
-        <v>72</v>
+      <c r="J287" s="36">
+        <v>0</v>
       </c>
       <c r="K287" s="36">
         <v>0.35961326387040349</v>
@@ -16082,8 +16080,8 @@
       <c r="I289" s="36">
         <v>0.7509410805026081</v>
       </c>
-      <c r="J289" s="36" t="s">
-        <v>72</v>
+      <c r="J289" s="36">
+        <v>0</v>
       </c>
       <c r="K289" s="36">
         <v>0.24907014510974906</v>
@@ -16135,8 +16133,8 @@
       <c r="I290" s="36">
         <v>0.74391999093381689</v>
       </c>
-      <c r="J290" s="36" t="s">
-        <v>72</v>
+      <c r="J290" s="36">
+        <v>0</v>
       </c>
       <c r="K290" s="36">
         <v>0.25608000906618311</v>
@@ -16188,8 +16186,8 @@
       <c r="I291" s="36">
         <v>0.59608900876601478</v>
       </c>
-      <c r="J291" s="36" t="s">
-        <v>72</v>
+      <c r="J291" s="36">
+        <v>0</v>
       </c>
       <c r="K291" s="36">
         <v>0.4040795684423466</v>
@@ -16347,8 +16345,8 @@
       <c r="I294" s="36">
         <v>0.74048917534291847</v>
       </c>
-      <c r="J294" s="36" t="s">
-        <v>72</v>
+      <c r="J294" s="36">
+        <v>0</v>
       </c>
       <c r="K294" s="36">
         <v>0.25952735085109901</v>
@@ -16453,8 +16451,8 @@
       <c r="I296" s="36">
         <v>0.63929201139292013</v>
       </c>
-      <c r="J296" s="36" t="s">
-        <v>72</v>
+      <c r="J296" s="36">
+        <v>0</v>
       </c>
       <c r="K296" s="36">
         <v>0.36077580360775802</v>
@@ -16771,8 +16769,8 @@
       <c r="I302" s="36">
         <v>0.60303994344291267</v>
       </c>
-      <c r="J302" s="36" t="s">
-        <v>72</v>
+      <c r="J302" s="36">
+        <v>0</v>
       </c>
       <c r="K302" s="36">
         <v>0.39696005655708733</v>
@@ -16877,8 +16875,8 @@
       <c r="I304" s="36">
         <v>0.69444931196206772</v>
       </c>
-      <c r="J304" s="36" t="s">
-        <v>72</v>
+      <c r="J304" s="36">
+        <v>0</v>
       </c>
       <c r="K304" s="36">
         <v>0.30556099572231099</v>
@@ -16983,8 +16981,8 @@
       <c r="I306" s="36">
         <v>0.70878857092977576</v>
       </c>
-      <c r="J306" s="36" t="s">
-        <v>72</v>
+      <c r="J306" s="36">
+        <v>0</v>
       </c>
       <c r="K306" s="36">
         <v>0.29121142907022418</v>
@@ -17195,8 +17193,8 @@
       <c r="I310" s="36">
         <v>0.69331008449345666</v>
       </c>
-      <c r="J310" s="36" t="s">
-        <v>72</v>
+      <c r="J310" s="36">
+        <v>0</v>
       </c>
       <c r="K310" s="36">
         <v>0.3066899155065434</v>
@@ -17301,8 +17299,8 @@
       <c r="I312" s="36">
         <v>0.76958867768493533</v>
       </c>
-      <c r="J312" s="36" t="s">
-        <v>72</v>
+      <c r="J312" s="36">
+        <v>0</v>
       </c>
       <c r="K312" s="36">
         <v>0.23041336930578357</v>
@@ -17407,8 +17405,8 @@
       <c r="I314" s="36">
         <v>0.57836034100518818</v>
       </c>
-      <c r="J314" s="36" t="s">
-        <v>72</v>
+      <c r="J314" s="36">
+        <v>0</v>
       </c>
       <c r="K314" s="36">
         <v>0.42166251457042947</v>
@@ -17460,8 +17458,8 @@
       <c r="I315" s="36">
         <v>0.6659652814308259</v>
       </c>
-      <c r="J315" s="36" t="s">
-        <v>72</v>
+      <c r="J315" s="36">
+        <v>0</v>
       </c>
       <c r="K315" s="36">
         <v>0.3340347185691741</v>
@@ -17513,8 +17511,8 @@
       <c r="I316" s="36">
         <v>0.73704755145493261</v>
       </c>
-      <c r="J316" s="36" t="s">
-        <v>72</v>
+      <c r="J316" s="36">
+        <v>0</v>
       </c>
       <c r="K316" s="36">
         <v>0.26295244854506744</v>
@@ -17566,8 +17564,8 @@
       <c r="I317" s="36">
         <v>0.7334504691978484</v>
       </c>
-      <c r="J317" s="36" t="s">
-        <v>72</v>
+      <c r="J317" s="36">
+        <v>0</v>
       </c>
       <c r="K317" s="36">
         <v>0.26655934665671993</v>
@@ -17672,8 +17670,8 @@
       <c r="I319" s="36">
         <v>0.53713033953997813</v>
       </c>
-      <c r="J319" s="36" t="s">
-        <v>72</v>
+      <c r="J319" s="36">
+        <v>0</v>
       </c>
       <c r="K319" s="36">
         <v>0.46292442497261777</v>
@@ -18096,8 +18094,8 @@
       <c r="I327" s="36">
         <v>0.62968248305387087</v>
       </c>
-      <c r="J327" s="36" t="s">
-        <v>72</v>
+      <c r="J327" s="36">
+        <v>0</v>
       </c>
       <c r="K327" s="36">
         <v>0.37036848274807604</v>
@@ -18149,8 +18147,8 @@
       <c r="I328" s="36">
         <v>0.61976021574720053</v>
       </c>
-      <c r="J328" s="36" t="s">
-        <v>72</v>
+      <c r="J328" s="36">
+        <v>0</v>
       </c>
       <c r="K328" s="36">
         <v>0.38023978425279942</v>
@@ -18202,8 +18200,8 @@
       <c r="I329" s="36">
         <v>0.66851474423841628</v>
       </c>
-      <c r="J329" s="36" t="s">
-        <v>72</v>
+      <c r="J329" s="36">
+        <v>0</v>
       </c>
       <c r="K329" s="36">
         <v>0.33151376081410427</v>
@@ -18255,8 +18253,8 @@
       <c r="I330" s="36">
         <v>0.73924714986711648</v>
       </c>
-      <c r="J330" s="36" t="s">
-        <v>72</v>
+      <c r="J330" s="36">
+        <v>0</v>
       </c>
       <c r="K330" s="36">
         <v>0.26075285013288346</v>
@@ -18467,8 +18465,8 @@
       <c r="I334" s="36">
         <v>0.66601898213885358</v>
       </c>
-      <c r="J334" s="36" t="s">
-        <v>72</v>
+      <c r="J334" s="36">
+        <v>0</v>
       </c>
       <c r="K334" s="36">
         <v>0.33398101786114642</v>
@@ -18573,8 +18571,8 @@
       <c r="I336" s="36">
         <v>0.74948722493732745</v>
       </c>
-      <c r="J336" s="36" t="s">
-        <v>72</v>
+      <c r="J336" s="36">
+        <v>0</v>
       </c>
       <c r="K336" s="36">
         <v>0.2505127750626725</v>
@@ -18626,8 +18624,8 @@
       <c r="I337" s="36">
         <v>0.50096966876115123</v>
       </c>
-      <c r="J337" s="36" t="s">
-        <v>72</v>
+      <c r="J337" s="36">
+        <v>0</v>
       </c>
       <c r="K337" s="36">
         <v>0.49903033123884882</v>
@@ -18679,8 +18677,8 @@
       <c r="I338" s="36">
         <v>0.68845172442176306</v>
       </c>
-      <c r="J338" s="36" t="s">
-        <v>72</v>
+      <c r="J338" s="36">
+        <v>0</v>
       </c>
       <c r="K338" s="36">
         <v>0.31154827557823689</v>
@@ -18785,8 +18783,8 @@
       <c r="I340" s="36">
         <v>0.74267159556399243</v>
       </c>
-      <c r="J340" s="36" t="s">
-        <v>72</v>
+      <c r="J340" s="36">
+        <v>0</v>
       </c>
       <c r="K340" s="36">
         <v>0.25734838645219305</v>
@@ -18838,8 +18836,8 @@
       <c r="I341" s="36">
         <v>0.74725897350893589</v>
       </c>
-      <c r="J341" s="36" t="s">
-        <v>72</v>
+      <c r="J341" s="36">
+        <v>0</v>
       </c>
       <c r="K341" s="36">
         <v>0.25275308158283355</v>
@@ -18891,8 +18889,8 @@
       <c r="I342" s="36">
         <v>0.60106841288988455</v>
       </c>
-      <c r="J342" s="36" t="s">
-        <v>72</v>
+      <c r="J342" s="36">
+        <v>0</v>
       </c>
       <c r="K342" s="36">
         <v>0.39893158711011545</v>
@@ -19050,8 +19048,8 @@
       <c r="I345" s="36">
         <v>0.7436058590408352</v>
       </c>
-      <c r="J345" s="36" t="s">
-        <v>72</v>
+      <c r="J345" s="36">
+        <v>0</v>
       </c>
       <c r="K345" s="36">
         <v>0.2563941409591648</v>
@@ -19156,8 +19154,8 @@
       <c r="I347" s="36">
         <v>0.68286774169127107</v>
       </c>
-      <c r="J347" s="36" t="s">
-        <v>72</v>
+      <c r="J347" s="36">
+        <v>0</v>
       </c>
       <c r="K347" s="36">
         <v>0.31728367022484671</v>
@@ -19474,8 +19472,8 @@
       <c r="I353" s="36">
         <v>0.64906166219839145</v>
       </c>
-      <c r="J353" s="36" t="s">
-        <v>72</v>
+      <c r="J353" s="36">
+        <v>0</v>
       </c>
       <c r="K353" s="36">
         <v>0.35107238605898122</v>
@@ -19580,8 +19578,8 @@
       <c r="I355" s="36">
         <v>0.69439134946207193</v>
       </c>
-      <c r="J355" s="36" t="s">
-        <v>72</v>
+      <c r="J355" s="36">
+        <v>0</v>
       </c>
       <c r="K355" s="36">
         <v>0.30560865053792802</v>
@@ -19686,8 +19684,8 @@
       <c r="I357" s="36">
         <v>0.70068070186521791</v>
       </c>
-      <c r="J357" s="36" t="s">
-        <v>72</v>
+      <c r="J357" s="36">
+        <v>0</v>
       </c>
       <c r="K357" s="36">
         <v>0.29931929813478214</v>
@@ -19898,8 +19896,8 @@
       <c r="I361" s="36">
         <v>0.66830174440542189</v>
       </c>
-      <c r="J361" s="36" t="s">
-        <v>72</v>
+      <c r="J361" s="36">
+        <v>0</v>
       </c>
       <c r="K361" s="36">
         <v>0.33173695565940076</v>
@@ -20004,8 +20002,8 @@
       <c r="I363" s="36">
         <v>0.76856456474836654</v>
       </c>
-      <c r="J363" s="36" t="s">
-        <v>72</v>
+      <c r="J363" s="36">
+        <v>0</v>
       </c>
       <c r="K363" s="36">
         <v>0.2314441789752793</v>
@@ -20110,8 +20108,8 @@
       <c r="I365" s="36">
         <v>0.5666578255732645</v>
       </c>
-      <c r="J365" s="36" t="s">
-        <v>72</v>
+      <c r="J365" s="36">
+        <v>0</v>
       </c>
       <c r="K365" s="36">
         <v>0.43334217442673545</v>
@@ -20163,8 +20161,8 @@
       <c r="I366" s="36">
         <v>0.64300078691964679</v>
       </c>
-      <c r="J366" s="36" t="s">
-        <v>72</v>
+      <c r="J366" s="36">
+        <v>0</v>
       </c>
       <c r="K366" s="36">
         <v>0.35699921308035326</v>
@@ -20216,8 +20214,8 @@
       <c r="I367" s="36">
         <v>0.7219720312870348</v>
       </c>
-      <c r="J367" s="36" t="s">
-        <v>72</v>
+      <c r="J367" s="36">
+        <v>0</v>
       </c>
       <c r="K367" s="36">
         <v>0.27802796871296515</v>
@@ -20269,8 +20267,8 @@
       <c r="I368" s="36">
         <v>0.72285271533787199</v>
       </c>
-      <c r="J368" s="36" t="s">
-        <v>72</v>
+      <c r="J368" s="36">
+        <v>0</v>
       </c>
       <c r="K368" s="36">
         <v>0.27715424929918342</v>
@@ -20375,8 +20373,8 @@
       <c r="I370" s="36">
         <v>0.55496042373385701</v>
       </c>
-      <c r="J370" s="36" t="s">
-        <v>72</v>
+      <c r="J370" s="36">
+        <v>0</v>
       </c>
       <c r="K370" s="36">
         <v>0.44503957626614293</v>
@@ -20799,8 +20797,8 @@
       <c r="I378" s="36">
         <v>0.59974905897114184</v>
       </c>
-      <c r="J378" s="36" t="s">
-        <v>72</v>
+      <c r="J378" s="36">
+        <v>0</v>
       </c>
       <c r="K378" s="36">
         <v>0.40025094102885822</v>
@@ -20852,8 +20850,8 @@
       <c r="I379" s="36">
         <v>0.61371765200925732</v>
       </c>
-      <c r="J379" s="36" t="s">
-        <v>72</v>
+      <c r="J379" s="36">
+        <v>0</v>
       </c>
       <c r="K379" s="36">
         <v>0.38629737609329445</v>
@@ -20905,8 +20903,8 @@
       <c r="I380" s="36">
         <v>0.65267479624977021</v>
       </c>
-      <c r="J380" s="36" t="s">
-        <v>72</v>
+      <c r="J380" s="36">
+        <v>0</v>
       </c>
       <c r="K380" s="36">
         <v>0.34735584288252958</v>
@@ -20958,8 +20956,8 @@
       <c r="I381" s="36">
         <v>0.72997808722697388</v>
       </c>
-      <c r="J381" s="36" t="s">
-        <v>72</v>
+      <c r="J381" s="36">
+        <v>0</v>
       </c>
       <c r="K381" s="36">
         <v>0.27002898140948611</v>
@@ -21170,8 +21168,8 @@
       <c r="I385" s="36">
         <v>0.68300450520428768</v>
       </c>
-      <c r="J385" s="36" t="s">
-        <v>72</v>
+      <c r="J385" s="36">
+        <v>0</v>
       </c>
       <c r="K385" s="36">
         <v>0.31699549479571226</v>
@@ -21276,8 +21274,8 @@
       <c r="I387" s="36">
         <v>0.75988412638806935</v>
       </c>
-      <c r="J387" s="36" t="s">
-        <v>72</v>
+      <c r="J387" s="36">
+        <v>0</v>
       </c>
       <c r="K387" s="36">
         <v>0.24011587361193068</v>
@@ -21329,8 +21327,8 @@
       <c r="I388" s="36">
         <v>0.49185939717792437</v>
       </c>
-      <c r="J388" s="36" t="s">
-        <v>72</v>
+      <c r="J388" s="36">
+        <v>0</v>
       </c>
       <c r="K388" s="36">
         <v>0.50814060282207563</v>
@@ -21382,8 +21380,8 @@
       <c r="I389" s="36">
         <v>0.67391706473129276</v>
       </c>
-      <c r="J389" s="36" t="s">
-        <v>72</v>
+      <c r="J389" s="36">
+        <v>0</v>
       </c>
       <c r="K389" s="36">
         <v>0.32608293526870724</v>
@@ -21488,8 +21486,8 @@
       <c r="I391" s="36">
         <v>0.74127687063843528</v>
       </c>
-      <c r="J391" s="36" t="s">
-        <v>72</v>
+      <c r="J391" s="36">
+        <v>0</v>
       </c>
       <c r="K391" s="36">
         <v>0.25873587936793968</v>
@@ -21541,8 +21539,8 @@
       <c r="I392" s="36">
         <v>0.71822135371764662</v>
       </c>
-      <c r="J392" s="36" t="s">
-        <v>72</v>
+      <c r="J392" s="36">
+        <v>0</v>
       </c>
       <c r="K392" s="36">
         <v>0.28178503234540936</v>
@@ -21594,8 +21592,8 @@
       <c r="I393" s="36">
         <v>0.63399748698617842</v>
       </c>
-      <c r="J393" s="36" t="s">
-        <v>72</v>
+      <c r="J393" s="36">
+        <v>0</v>
       </c>
       <c r="K393" s="36">
         <v>0.36600251301382158</v>
@@ -21753,8 +21751,8 @@
       <c r="I396" s="36">
         <v>0.70360467982630792</v>
       </c>
-      <c r="J396" s="36" t="s">
-        <v>72</v>
+      <c r="J396" s="36">
+        <v>0</v>
       </c>
       <c r="K396" s="36">
         <v>0.29639532017369208</v>
@@ -21859,8 +21857,8 @@
       <c r="I398" s="36">
         <v>0.65510792488116576</v>
       </c>
-      <c r="J398" s="36" t="s">
-        <v>72</v>
+      <c r="J398" s="36">
+        <v>0</v>
       </c>
       <c r="K398" s="36">
         <v>0.34489207511883424</v>
@@ -22177,8 +22175,8 @@
       <c r="I404" s="36">
         <v>0.5859872611464968</v>
       </c>
-      <c r="J404" s="36" t="s">
-        <v>72</v>
+      <c r="J404" s="36">
+        <v>0</v>
       </c>
       <c r="K404" s="36">
         <v>0.4140127388535032</v>
@@ -22283,8 +22281,8 @@
       <c r="I406" s="36">
         <v>0.67026079383994863</v>
       </c>
-      <c r="J406" s="36" t="s">
-        <v>72</v>
+      <c r="J406" s="36">
+        <v>0</v>
       </c>
       <c r="K406" s="36">
         <v>0.32976212301769181</v>
@@ -22389,8 +22387,8 @@
       <c r="I408" s="36">
         <v>0.69331757909938296</v>
       </c>
-      <c r="J408" s="36" t="s">
-        <v>72</v>
+      <c r="J408" s="36">
+        <v>0</v>
       </c>
       <c r="K408" s="36">
         <v>0.30668242090061704</v>
@@ -22601,8 +22599,8 @@
       <c r="I412" s="31">
         <v>0.64834502691054674</v>
       </c>
-      <c r="J412" s="31" t="s">
-        <v>72</v>
+      <c r="J412" s="31">
+        <v>0</v>
       </c>
       <c r="K412" s="31">
         <v>0.35165497308945332</v>
@@ -22707,8 +22705,8 @@
       <c r="I414" s="31">
         <v>0.75306356788535733</v>
       </c>
-      <c r="J414" s="31" t="s">
-        <v>72</v>
+      <c r="J414" s="31">
+        <v>0</v>
       </c>
       <c r="K414" s="31">
         <v>0.24694561822524344</v>
@@ -22760,8 +22758,8 @@
       <c r="I415" s="31">
         <v>0.65161452654533258</v>
       </c>
-      <c r="J415" s="31" t="s">
-        <v>72</v>
+      <c r="J415" s="31">
+        <v>0</v>
       </c>
       <c r="K415" s="31">
         <v>0.34841902205820685</v>
@@ -22813,8 +22811,8 @@
       <c r="I416" s="31">
         <v>0.56249846365625233</v>
       </c>
-      <c r="J416" s="31" t="s">
-        <v>72</v>
+      <c r="J416" s="31">
+        <v>0</v>
       </c>
       <c r="K416" s="31">
         <v>0.43752611784371082</v>
@@ -22866,8 +22864,8 @@
       <c r="I417" s="31">
         <v>0.65998977156495053</v>
       </c>
-      <c r="J417" s="31" t="s">
-        <v>72</v>
+      <c r="J417" s="31">
+        <v>0</v>
       </c>
       <c r="K417" s="31">
         <v>0.34001022843504941</v>
@@ -22919,8 +22917,8 @@
       <c r="I418" s="31">
         <v>0.72201175702155451</v>
       </c>
-      <c r="J418" s="31" t="s">
-        <v>72</v>
+      <c r="J418" s="31">
+        <v>0</v>
       </c>
       <c r="K418" s="31">
         <v>0.27798824297844549</v>
@@ -22972,8 +22970,8 @@
       <c r="I419" s="31">
         <v>0.72314796011073224</v>
       </c>
-      <c r="J419" s="31" t="s">
-        <v>72</v>
+      <c r="J419" s="31">
+        <v>0</v>
       </c>
       <c r="K419" s="31">
         <v>0.2768698539602461</v>
@@ -23078,8 +23076,8 @@
       <c r="I421" s="31">
         <v>0.5176412227940721</v>
       </c>
-      <c r="J421" s="31" t="s">
-        <v>72</v>
+      <c r="J421" s="31">
+        <v>0</v>
       </c>
       <c r="K421" s="31">
         <v>0.48235877720592796</v>
@@ -23502,8 +23500,8 @@
       <c r="I429" s="31">
         <v>0.56791196061395888</v>
       </c>
-      <c r="J429" s="31" t="s">
-        <v>72</v>
+      <c r="J429" s="31">
+        <v>0</v>
       </c>
       <c r="K429" s="31">
         <v>0.43208803938604112</v>
@@ -23555,8 +23553,8 @@
       <c r="I430" s="31">
         <v>0.62806828668102122</v>
       </c>
-      <c r="J430" s="31" t="s">
-        <v>72</v>
+      <c r="J430" s="31">
+        <v>0</v>
       </c>
       <c r="K430" s="31">
         <v>0.37193171331897878</v>
@@ -23608,8 +23606,8 @@
       <c r="I431" s="31">
         <v>0.66775958058075935</v>
       </c>
-      <c r="J431" s="31" t="s">
-        <v>72</v>
+      <c r="J431" s="31">
+        <v>0</v>
       </c>
       <c r="K431" s="31">
         <v>0.33225665081400446</v>
@@ -23661,8 +23659,8 @@
       <c r="I432" s="31">
         <v>0.71583713711886066</v>
       </c>
-      <c r="J432" s="31" t="s">
-        <v>72</v>
+      <c r="J432" s="31">
+        <v>0</v>
       </c>
       <c r="K432" s="31">
         <v>0.28417746941756433</v>
@@ -23873,8 +23871,8 @@
       <c r="I436" s="31">
         <v>0.66302101274543579</v>
       </c>
-      <c r="J436" s="31" t="s">
-        <v>72</v>
+      <c r="J436" s="31">
+        <v>0</v>
       </c>
       <c r="K436" s="31">
         <v>0.33697898725456427</v>
@@ -23979,8 +23977,8 @@
       <c r="I438" s="31">
         <v>0.72228612115237156</v>
       </c>
-      <c r="J438" s="31" t="s">
-        <v>72</v>
+      <c r="J438" s="31">
+        <v>0</v>
       </c>
       <c r="K438" s="31">
         <v>0.27771387884762844</v>
@@ -24032,8 +24030,8 @@
       <c r="I439" s="31">
         <v>0.47981442292039722</v>
       </c>
-      <c r="J439" s="31" t="s">
-        <v>72</v>
+      <c r="J439" s="31">
+        <v>0</v>
       </c>
       <c r="K439" s="31">
         <v>0.52018557707960278</v>
@@ -24085,8 +24083,8 @@
       <c r="I440" s="31">
         <v>0.65422104169072637</v>
       </c>
-      <c r="J440" s="31" t="s">
-        <v>72</v>
+      <c r="J440" s="31">
+        <v>0</v>
       </c>
       <c r="K440" s="31">
         <v>0.34577895830927358</v>
@@ -24191,8 +24189,8 @@
       <c r="I442" s="31">
         <v>0.746971807628524</v>
       </c>
-      <c r="J442" s="31" t="s">
-        <v>72</v>
+      <c r="J442" s="31">
+        <v>0</v>
       </c>
       <c r="K442" s="31">
         <v>0.25303703703703706</v>
@@ -24244,8 +24242,8 @@
       <c r="I443" s="31">
         <v>0.69665014470576492</v>
       </c>
-      <c r="J443" s="31" t="s">
-        <v>72</v>
+      <c r="J443" s="31">
+        <v>0</v>
       </c>
       <c r="K443" s="31">
         <v>0.30336316157147136</v>
@@ -24297,8 +24295,8 @@
       <c r="I444" s="31">
         <v>0.61805934826142361</v>
       </c>
-      <c r="J444" s="31" t="s">
-        <v>72</v>
+      <c r="J444" s="31">
+        <v>0</v>
       </c>
       <c r="K444" s="31">
         <v>0.38194065173857639</v>
@@ -24456,8 +24454,8 @@
       <c r="I447" s="31">
         <v>0.67983453575909658</v>
       </c>
-      <c r="J447" s="31" t="s">
-        <v>72</v>
+      <c r="J447" s="31">
+        <v>0</v>
       </c>
       <c r="K447" s="31">
         <v>0.32016546424090336</v>
@@ -24562,8 +24560,8 @@
       <c r="I449" s="31">
         <v>0.61489344058379636</v>
       </c>
-      <c r="J449" s="31" t="s">
-        <v>72</v>
+      <c r="J449" s="31">
+        <v>0</v>
       </c>
       <c r="K449" s="31">
         <v>0.38510655941620364</v>
@@ -24880,8 +24878,8 @@
       <c r="I455" s="31">
         <v>0.59594739667203434</v>
       </c>
-      <c r="J455" s="31" t="s">
-        <v>72</v>
+      <c r="J455" s="31">
+        <v>0</v>
       </c>
       <c r="K455" s="31">
         <v>0.40405260332796566</v>
@@ -24986,8 +24984,8 @@
       <c r="I457" s="31">
         <v>0.64907713871777051</v>
       </c>
-      <c r="J457" s="31" t="s">
-        <v>72</v>
+      <c r="J457" s="31">
+        <v>0</v>
       </c>
       <c r="K457" s="31">
         <v>0.35092286128222949</v>
@@ -25039,8 +25037,8 @@
       <c r="I458" s="31">
         <v>0.68720856492707127</v>
       </c>
-      <c r="J458" s="31" t="s">
-        <v>72</v>
+      <c r="J458" s="31">
+        <v>0</v>
       </c>
       <c r="K458" s="31">
         <v>0.31279143507292873</v>
@@ -25092,8 +25090,8 @@
       <c r="I459" s="31">
         <v>0.68975591204536024</v>
       </c>
-      <c r="J459" s="31" t="s">
-        <v>72</v>
+      <c r="J459" s="31">
+        <v>0</v>
       </c>
       <c r="K459" s="31">
         <v>0.31027866131931958</v>
@@ -25304,8 +25302,8 @@
       <c r="I463" s="31">
         <v>0.67649631921476583</v>
       </c>
-      <c r="J463" s="31" t="s">
-        <v>72</v>
+      <c r="J463" s="31">
+        <v>0</v>
       </c>
       <c r="K463" s="31">
         <v>0.32351434972794196</v>
@@ -25410,8 +25408,8 @@
       <c r="I465" s="31">
         <v>0.75968060244697488</v>
       </c>
-      <c r="J465" s="31" t="s">
-        <v>72</v>
+      <c r="J465" s="31">
+        <v>0</v>
       </c>
       <c r="K465" s="31">
         <v>0.24031939755302517</v>
@@ -25463,8 +25461,8 @@
       <c r="I466" s="31">
         <v>0.65958798919663186</v>
       </c>
-      <c r="J466" s="31" t="s">
-        <v>72</v>
+      <c r="J466" s="31">
+        <v>0</v>
       </c>
       <c r="K466" s="31">
         <v>0.34041201080336808</v>
@@ -25516,8 +25514,8 @@
       <c r="I467" s="31">
         <v>0.56727298298251372</v>
       </c>
-      <c r="J467" s="31" t="s">
-        <v>72</v>
+      <c r="J467" s="31">
+        <v>0</v>
       </c>
       <c r="K467" s="31">
         <v>0.43272701701748628</v>
@@ -25569,8 +25567,8 @@
       <c r="I468" s="31">
         <v>0.63701272055806324</v>
       </c>
-      <c r="J468" s="31" t="s">
-        <v>72</v>
+      <c r="J468" s="31">
+        <v>0</v>
       </c>
       <c r="K468" s="31">
         <v>0.36298727944193682</v>
@@ -25622,8 +25620,8 @@
       <c r="I469" s="31">
         <v>0.70294840294840299</v>
       </c>
-      <c r="J469" s="31" t="s">
-        <v>72</v>
+      <c r="J469" s="31">
+        <v>0</v>
       </c>
       <c r="K469" s="31">
         <v>0.29705159705159706</v>
@@ -25675,8 +25673,8 @@
       <c r="I470" s="31">
         <v>0.72193766976824825</v>
       </c>
-      <c r="J470" s="31" t="s">
-        <v>72</v>
+      <c r="J470" s="31">
+        <v>0</v>
       </c>
       <c r="K470" s="31">
         <v>0.27807316650291858</v>
@@ -25781,8 +25779,8 @@
       <c r="I472" s="31">
         <v>0.52665995975855129</v>
       </c>
-      <c r="J472" s="31" t="s">
-        <v>72</v>
+      <c r="J472" s="31">
+        <v>0</v>
       </c>
       <c r="K472" s="31">
         <v>0.47334004024144871</v>
@@ -26205,8 +26203,8 @@
       <c r="I480" s="31">
         <v>0.6117402357291426</v>
       </c>
-      <c r="J480" s="31" t="s">
-        <v>72</v>
+      <c r="J480" s="31">
+        <v>0</v>
       </c>
       <c r="K480" s="31">
         <v>0.3882597642708574</v>
@@ -26258,8 +26256,8 @@
       <c r="I481" s="31">
         <v>0.62114194060949468</v>
       </c>
-      <c r="J481" s="31" t="s">
-        <v>72</v>
+      <c r="J481" s="31">
+        <v>0</v>
       </c>
       <c r="K481" s="31">
         <v>0.37887304942213429</v>
@@ -26311,8 +26309,8 @@
       <c r="I482" s="31">
         <v>0.67812368395477662</v>
       </c>
-      <c r="J482" s="31" t="s">
-        <v>72</v>
+      <c r="J482" s="31">
+        <v>0</v>
       </c>
       <c r="K482" s="31">
         <v>0.32189251352489551</v>
@@ -26364,8 +26362,8 @@
       <c r="I483" s="31">
         <v>0.68594123487662262</v>
       </c>
-      <c r="J483" s="31" t="s">
-        <v>72</v>
+      <c r="J483" s="31">
+        <v>0</v>
       </c>
       <c r="K483" s="31">
         <v>0.31406611995734196</v>
@@ -26576,8 +26574,8 @@
       <c r="I487" s="31">
         <v>0.68502061383417312</v>
       </c>
-      <c r="J487" s="31" t="s">
-        <v>72</v>
+      <c r="J487" s="31">
+        <v>0</v>
       </c>
       <c r="K487" s="31">
         <v>0.31497938616582682</v>
@@ -26682,8 +26680,8 @@
       <c r="I489" s="31">
         <v>0.72007105710313579</v>
       </c>
-      <c r="J489" s="31" t="s">
-        <v>72</v>
+      <c r="J489" s="31">
+        <v>0</v>
       </c>
       <c r="K489" s="31">
         <v>0.27995468822408731</v>
@@ -26735,8 +26733,8 @@
       <c r="I490" s="31">
         <v>0.49072378374074371</v>
       </c>
-      <c r="J490" s="31" t="s">
-        <v>72</v>
+      <c r="J490" s="31">
+        <v>0</v>
       </c>
       <c r="K490" s="31">
         <v>0.50927621625925634</v>
@@ -26788,8 +26786,8 @@
       <c r="I491" s="31">
         <v>0.66877887618408483</v>
       </c>
-      <c r="J491" s="31" t="s">
-        <v>72</v>
+      <c r="J491" s="31">
+        <v>0</v>
       </c>
       <c r="K491" s="31">
         <v>0.33122112381591512</v>
@@ -26894,8 +26892,8 @@
       <c r="I493" s="31">
         <v>0.74701070145794668</v>
       </c>
-      <c r="J493" s="31" t="s">
-        <v>72</v>
+      <c r="J493" s="31">
+        <v>0</v>
       </c>
       <c r="K493" s="31">
         <v>0.25299853189662336</v>
@@ -26947,8 +26945,8 @@
       <c r="I494" s="31">
         <v>0.71645378382090374</v>
       </c>
-      <c r="J494" s="31" t="s">
-        <v>72</v>
+      <c r="J494" s="31">
+        <v>0</v>
       </c>
       <c r="K494" s="31">
         <v>0.28355308336766927</v>
@@ -27000,8 +26998,8 @@
       <c r="I495" s="31">
         <v>0.65704320868048827</v>
       </c>
-      <c r="J495" s="31" t="s">
-        <v>72</v>
+      <c r="J495" s="31">
+        <v>0</v>
       </c>
       <c r="K495" s="31">
         <v>0.34295679131951173</v>
@@ -27159,8 +27157,8 @@
       <c r="I498" s="31">
         <v>0.6518557135123213</v>
       </c>
-      <c r="J498" s="31" t="s">
-        <v>72</v>
+      <c r="J498" s="31">
+        <v>0</v>
       </c>
       <c r="K498" s="31">
         <v>0.3481442864876787</v>
@@ -27265,8 +27263,8 @@
       <c r="I500" s="31">
         <v>0.62412168306191618</v>
       </c>
-      <c r="J500" s="31" t="s">
-        <v>72</v>
+      <c r="J500" s="31">
+        <v>0</v>
       </c>
       <c r="K500" s="31">
         <v>0.37587831693808382</v>
@@ -27583,8 +27581,8 @@
       <c r="I506" s="31">
         <v>0.54604703882119576</v>
       </c>
-      <c r="J506" s="31" t="s">
-        <v>72</v>
+      <c r="J506" s="31">
+        <v>0</v>
       </c>
       <c r="K506" s="31">
         <v>0.45395296117880418</v>
@@ -27689,8 +27687,8 @@
       <c r="I508" s="31">
         <v>0.65514625410406924</v>
       </c>
-      <c r="J508" s="31" t="s">
-        <v>72</v>
+      <c r="J508" s="31">
+        <v>0</v>
       </c>
       <c r="K508" s="31">
         <v>0.34485374589593076</v>
@@ -27742,8 +27740,8 @@
       <c r="I509" s="31">
         <v>0.6934557063048683</v>
       </c>
-      <c r="J509" s="31" t="s">
-        <v>72</v>
+      <c r="J509" s="31">
+        <v>0</v>
       </c>
       <c r="K509" s="31">
         <v>0.3065442936951317</v>
@@ -27795,8 +27793,8 @@
       <c r="I510" s="31">
         <v>0.67439381311418212</v>
       </c>
-      <c r="J510" s="31" t="s">
-        <v>72</v>
+      <c r="J510" s="31">
+        <v>0</v>
       </c>
       <c r="K510" s="31">
         <v>0.32564495183455122</v>
